--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request800.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link2_request800.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.572</v>
+        <v>19.572</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2026,7 +2026,7 @@
         <v>0.4064</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="146">
@@ -2037,7 +2037,7 @@
         <v>1.2816</v>
       </c>
       <c r="C146" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="147">
@@ -2048,7 +2048,7 @@
         <v>1.54</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="148">
@@ -2059,7 +2059,7 @@
         <v>0.46</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="149">
@@ -2070,7 +2070,7 @@
         <v>0.0184</v>
       </c>
       <c r="C149" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="150">
@@ -2081,7 +2081,7 @@
         <v>0.4216</v>
       </c>
       <c r="C150" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="151">
@@ -2092,7 +2092,7 @@
         <v>2.8832</v>
       </c>
       <c r="C151" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="152">
@@ -2103,7 +2103,7 @@
         <v>3.6592</v>
       </c>
       <c r="C152" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="153">
@@ -2114,7 +2114,7 @@
         <v>1.1976</v>
       </c>
       <c r="C153" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="154">
@@ -3148,7 +3148,7 @@
         <v>0.532</v>
       </c>
       <c r="C247" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="248">
@@ -3159,7 +3159,7 @@
         <v>0.376</v>
       </c>
       <c r="C248" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="249">
@@ -3170,7 +3170,7 @@
         <v>0.972</v>
       </c>
       <c r="C249" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="250">
@@ -3181,7 +3181,7 @@
         <v>2.152</v>
       </c>
       <c r="C250" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="251">
@@ -3192,7 +3192,7 @@
         <v>0.804</v>
       </c>
       <c r="C251" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="252">
@@ -3203,7 +3203,7 @@
         <v>0.504</v>
       </c>
       <c r="C252" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="253">
@@ -3214,7 +3214,7 @@
         <v>0.652</v>
       </c>
       <c r="C253" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="254">
@@ -4171,7 +4171,7 @@
         <v>2.496</v>
       </c>
       <c r="C340" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="341">
@@ -4182,7 +4182,7 @@
         <v>1.008</v>
       </c>
       <c r="C341" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="342">
@@ -4193,7 +4193,7 @@
         <v>3.612</v>
       </c>
       <c r="C342" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="343">
@@ -4204,7 +4204,7 @@
         <v>1.016</v>
       </c>
       <c r="C343" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="344">
@@ -4710,7 +4710,7 @@
         <v>2.976</v>
       </c>
       <c r="C389" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="390">
@@ -4721,7 +4721,7 @@
         <v>15.536</v>
       </c>
       <c r="C390" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="391">
@@ -5942,7 +5942,7 @@
         <v>2.8144</v>
       </c>
       <c r="C501" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="502">
@@ -5953,7 +5953,7 @@
         <v>4.9504</v>
       </c>
       <c r="C502" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="503">
@@ -5964,7 +5964,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C503" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="504">
@@ -6382,7 +6382,7 @@
         <v>17.4184</v>
       </c>
       <c r="C541" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="542">
@@ -7856,7 +7856,7 @@
         <v>2.8144</v>
       </c>
       <c r="C675" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="676">
@@ -7867,7 +7867,7 @@
         <v>4.9504</v>
       </c>
       <c r="C676" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="677">
@@ -7878,7 +7878,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C677" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="678">
@@ -8252,7 +8252,7 @@
         <v>17.4184</v>
       </c>
       <c r="C711" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="712">
@@ -9726,7 +9726,7 @@
         <v>2.8144</v>
       </c>
       <c r="C845" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="846">
@@ -9737,7 +9737,7 @@
         <v>4.9504</v>
       </c>
       <c r="C846" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="847">
@@ -9748,7 +9748,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C847" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="848">
@@ -10122,7 +10122,7 @@
         <v>17.4184</v>
       </c>
       <c r="C881" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="882">
@@ -11596,7 +11596,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1015" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1016">
@@ -11607,7 +11607,7 @@
         <v>4.9504</v>
       </c>
       <c r="C1016" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1017">
@@ -11618,7 +11618,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C1017" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1018">
@@ -11992,7 +11992,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1051" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1052">
@@ -13466,7 +13466,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1185" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1186">
@@ -13477,7 +13477,7 @@
         <v>4.9504</v>
       </c>
       <c r="C1186" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1187">
@@ -13488,7 +13488,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C1187" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="1188">
@@ -13862,7 +13862,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1221" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="1222">
@@ -15336,7 +15336,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1355" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1356">
@@ -15347,7 +15347,7 @@
         <v>4.9504</v>
       </c>
       <c r="C1356" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1357">
@@ -15358,7 +15358,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C1357" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="1358">
@@ -15732,7 +15732,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1391" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="1392">
@@ -17206,7 +17206,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1525" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1526">
@@ -17217,7 +17217,7 @@
         <v>4.9504</v>
       </c>
       <c r="C1526" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1527">
@@ -17228,7 +17228,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C1527" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="1528">
@@ -17602,7 +17602,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1561" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="1562">
@@ -19076,7 +19076,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1695" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1696">
@@ -19087,7 +19087,7 @@
         <v>4.9504</v>
       </c>
       <c r="C1696" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1697">
@@ -19098,7 +19098,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C1697" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="1698">
@@ -19472,7 +19472,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1731" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="1732">
@@ -20946,7 +20946,7 @@
         <v>2.8144</v>
       </c>
       <c r="C1865" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1866">
@@ -20957,7 +20957,7 @@
         <v>4.9504</v>
       </c>
       <c r="C1866" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1867">
@@ -20968,7 +20968,7 @@
         <v>3.289600000000001</v>
       </c>
       <c r="C1867" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="1868">
@@ -21342,7 +21342,7 @@
         <v>17.4184</v>
       </c>
       <c r="C1901" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="1902">
@@ -21669,7 +21669,7 @@
         <v>1929</v>
       </c>
       <c r="B1931" t="n">
-        <v>42.31760000000001</v>
+        <v>26.3176</v>
       </c>
       <c r="C1931" t="n">
         <v>12187501</v>
